--- a/Teensy_1U_MIDI_8x14/Teensy_1U_MIDI_8x14_bom.xlsx
+++ b/Teensy_1U_MIDI_8x14/Teensy_1U_MIDI_8x14_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Documents/GitHub/Midi-boards/Teensy_1U_MIDI_8x14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA090E9-F734-6148-BB8A-CB4E1288F600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F580A40-D2B2-894B-8A0A-C989556A03CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{71D61E79-0498-904A-B799-3403509F1DD9}"/>
   </bookViews>
@@ -511,10 +511,10 @@
     <t>USB-B female panel mount to microUSB</t>
   </si>
   <si>
-    <t>* Follow detailed assembly guide at https://github.com/Deftaudio/Midi-boards</t>
-  </si>
-  <si>
-    <t>https://www.github.com/Deftaudio/Midi-boards</t>
+    <t>* Follow detailed assembly guide at https://github.com/Deftaudio/Midi-boards/tree/master/Teensy_1U_MIDI_8x14</t>
+  </si>
+  <si>
+    <t>https://github.com/Deftaudio/Midi-boards/tree/master/Teensy_1U_MIDI_8x14</t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -724,6 +724,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -736,13 +742,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1063,8 +1062,8 @@
   </sheetPr>
   <dimension ref="A2:W126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,16 +1093,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="20" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1145,7 +1144,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B8" s="3"/>
@@ -1158,11 +1157,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="26" t="s">
+      <c r="C9" t="s">
         <v>142</v>
       </c>
       <c r="D9" s="3"/>
@@ -1171,7 +1170,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B10" s="3"/>
@@ -1184,7 +1183,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B11" s="3"/>
@@ -1206,7 +1205,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1560,7 +1559,7 @@
       <c r="C44" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="17" t="s">
         <v>125</v>
       </c>
       <c r="E44" s="3">
@@ -1575,7 +1574,7 @@
       <c r="C45" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="18" t="s">
         <v>127</v>
       </c>
       <c r="E45" s="3">
@@ -1598,7 +1597,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -1660,7 +1659,7 @@
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -1677,7 +1676,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B52" s="3"/>
@@ -1692,7 +1691,7 @@
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B53" s="3"/>
@@ -1707,7 +1706,7 @@
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B54" s="3"/>
@@ -1722,7 +1721,7 @@
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B55" s="3"/>
@@ -1737,7 +1736,7 @@
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B56" s="3"/>
@@ -1752,7 +1751,7 @@
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B57" s="3"/>
@@ -1767,7 +1766,7 @@
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B58" s="3"/>
@@ -1830,13 +1829,13 @@
       <c r="E61" s="16"/>
     </row>
     <row r="62" spans="1:23" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="26"/>
       <c r="S62">
         <v>24</v>
       </c>
@@ -1860,13 +1859,13 @@
       <c r="E63" s="9"/>
     </row>
     <row r="64" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="22"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="26"/>
       <c r="S64">
         <v>24</v>
       </c>
@@ -1884,13 +1883,13 @@
       </c>
     </row>
     <row r="65" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="22"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="26"/>
       <c r="S65">
         <v>24</v>
       </c>
@@ -1908,11 +1907,11 @@
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="22"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="26"/>
       <c r="S66">
         <v>25</v>
       </c>

--- a/Teensy_1U_MIDI_8x14/Teensy_1U_MIDI_8x14_bom.xlsx
+++ b/Teensy_1U_MIDI_8x14/Teensy_1U_MIDI_8x14_bom.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Documents/GitHub/Midi-boards/Teensy_1U_MIDI_8x14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F580A40-D2B2-894B-8A0A-C989556A03CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF48206-DA56-774E-A06E-A31AFA9AD6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{71D61E79-0498-904A-B799-3403509F1DD9}"/>
+    <workbookView xWindow="1340" yWindow="1020" windowWidth="39000" windowHeight="26520" xr2:uid="{71D61E79-0498-904A-B799-3403509F1DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Teensy 1U" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Teensy 1U'!$A$1:$F$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Teensy 1U'!$A$1:$I$68</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="169">
   <si>
     <t>R8</t>
   </si>
@@ -515,6 +515,21 @@
   </si>
   <si>
     <t>https://github.com/Deftaudio/Midi-boards/tree/master/Teensy_1U_MIDI_8x14</t>
+  </si>
+  <si>
+    <t>PCB alone</t>
+  </si>
+  <si>
+    <t>Complete Electronics kit</t>
+  </si>
+  <si>
+    <t>Complete Electronics kit with front panel</t>
+  </si>
+  <si>
+    <t>Full kit</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -588,7 +603,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -658,15 +673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -687,14 +693,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -702,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -712,24 +720,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -739,8 +746,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1057,56 +1093,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:W126"/>
+  <dimension ref="A2:AA126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="6" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="80" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1122,17 +1161,33 @@
       <c r="E4" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="F4" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -1142,11 +1197,21 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="F7" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
         <v>141</v>
@@ -1155,24 +1220,34 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
       <c r="B9" s="3"/>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>144</v>
@@ -1181,11 +1256,15 @@
       <c r="E10" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
         <v>143</v>
@@ -1194,20 +1273,34 @@
       <c r="E11" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
       <c r="B14" s="3" t="s">
         <v>82</v>
       </c>
@@ -1220,8 +1313,14 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>83</v>
@@ -1235,8 +1334,18 @@
       <c r="E15" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>92</v>
@@ -1250,8 +1359,18 @@
       <c r="E16" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>94</v>
@@ -1265,8 +1384,24 @@
       <c r="E17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>97</v>
       </c>
@@ -1274,8 +1409,12 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>98</v>
@@ -1289,8 +1428,24 @@
       <c r="E20" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -1298,8 +1453,12 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>101</v>
@@ -1313,8 +1472,18 @@
       <c r="E23" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>106</v>
@@ -1328,8 +1497,18 @@
       <c r="E24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="15"/>
+      <c r="G24" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>107</v>
@@ -1343,8 +1522,24 @@
       <c r="E25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="15"/>
+      <c r="G25" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>67</v>
       </c>
@@ -1352,10 +1547,14 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>115</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1367,8 +1566,18 @@
       <c r="E28" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="15"/>
+      <c r="G28" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>116</v>
@@ -1382,8 +1591,18 @@
       <c r="E29" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="15"/>
+      <c r="G29" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>118</v>
@@ -1397,8 +1616,18 @@
       <c r="E30" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="15"/>
+      <c r="G30" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>119</v>
@@ -1412,10 +1641,20 @@
       <c r="E31" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="F31" s="15"/>
+      <c r="G31" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="10" t="s">
         <v>121</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -1427,8 +1666,24 @@
       <c r="E32" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="15"/>
+      <c r="G32" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -1436,8 +1691,12 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>84</v>
@@ -1451,8 +1710,18 @@
       <c r="E35" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="15"/>
+      <c r="G35" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>108</v>
@@ -1466,8 +1735,18 @@
       <c r="E36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="15"/>
+      <c r="G36" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>111</v>
@@ -1481,8 +1760,18 @@
       <c r="E37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="15"/>
+      <c r="G37" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>112</v>
@@ -1496,8 +1785,24 @@
       <c r="E38" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="15"/>
+      <c r="G38" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>71</v>
       </c>
@@ -1505,13 +1810,17 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+    </row>
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -1520,13 +1829,23 @@
       <c r="E41" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="15"/>
+      <c r="G41" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="17" t="s">
         <v>131</v>
       </c>
       <c r="D42" t="s">
@@ -1535,13 +1854,23 @@
       <c r="E42" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="15"/>
+      <c r="G42" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -1550,43 +1879,73 @@
       <c r="E43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="15"/>
+      <c r="G43" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="13" t="s">
         <v>125</v>
       </c>
       <c r="E44" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="15"/>
+      <c r="G44" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="14" t="s">
         <v>127</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="15"/>
+      <c r="G45" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="10" t="s">
         <v>129</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -1595,15 +1954,23 @@
       <c r="E46" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
       <c r="B47" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="10" t="s">
         <v>145</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -1612,13 +1979,21 @@
       <c r="E47" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="10" t="s">
         <v>135</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -1627,13 +2002,23 @@
       <c r="E48" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="F48" s="15"/>
+      <c r="G48" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="10" t="s">
         <v>78</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -1642,13 +2027,23 @@
       <c r="E49" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="F49" s="15"/>
+      <c r="G49" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -1657,15 +2052,23 @@
       <c r="E50" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="15"/>
       <c r="B51" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="10" t="s">
         <v>140</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -1674,13 +2077,19 @@
       <c r="E51" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="15"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -1689,13 +2098,17 @@
       <c r="E52" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="15"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="10" t="s">
         <v>150</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -1704,13 +2117,17 @@
       <c r="E53" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="15"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="10" t="s">
         <v>151</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -1719,13 +2136,17 @@
       <c r="E54" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="15"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="10" t="s">
         <v>152</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -1734,13 +2155,17 @@
       <c r="E55" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="15"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="10" t="s">
         <v>156</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -1749,13 +2174,17 @@
       <c r="E56" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="15"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="10" t="s">
         <v>158</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -1764,13 +2193,19 @@
       <c r="E57" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
         <v>139</v>
       </c>
       <c r="B58" s="3"/>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="10" t="s">
         <v>161</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -1779,1194 +2214,1314 @@
       <c r="E58" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S59">
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="W59">
         <v>24</v>
       </c>
-      <c r="T59" t="s">
+      <c r="X59" t="s">
         <v>29</v>
       </c>
-      <c r="U59">
+      <c r="Y59">
         <v>24</v>
       </c>
-      <c r="V59">
+      <c r="Z59">
         <v>33</v>
       </c>
-      <c r="W59" t="s">
+      <c r="AA59" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="7"/>
-      <c r="S60">
+      <c r="E60" s="6"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="36"/>
+      <c r="W60">
         <v>24</v>
       </c>
-      <c r="T60" t="s">
+      <c r="X60" t="s">
         <v>29</v>
       </c>
-      <c r="U60">
+      <c r="Y60">
         <v>24</v>
       </c>
-      <c r="V60">
+      <c r="Z60">
         <v>8</v>
       </c>
-      <c r="W60" t="s">
+      <c r="AA60" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="14"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="16"/>
-    </row>
-    <row r="62" spans="1:23" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="24" t="s">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+    </row>
+    <row r="62" spans="1:27" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="26"/>
-      <c r="S62">
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="W62">
         <v>24</v>
       </c>
-      <c r="T62" t="s">
+      <c r="X62" t="s">
         <v>29</v>
       </c>
-      <c r="U62">
+      <c r="Y62">
         <v>24</v>
       </c>
-      <c r="V62">
+      <c r="Z62">
         <v>1</v>
       </c>
-      <c r="W62" t="s">
+      <c r="AA62" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E63" s="9"/>
-    </row>
-    <row r="64" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="24" t="s">
+      <c r="E63" s="25"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+    </row>
+    <row r="64" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="26"/>
-      <c r="S64">
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="W64">
         <v>24</v>
       </c>
-      <c r="T64" t="s">
+      <c r="X64" t="s">
         <v>29</v>
       </c>
-      <c r="U64">
+      <c r="Y64">
         <v>24</v>
       </c>
-      <c r="V64">
+      <c r="Z64">
         <v>8</v>
       </c>
-      <c r="W64" t="s">
+      <c r="AA64" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="24" t="s">
+    <row r="65" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="26"/>
-      <c r="S65">
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="W65">
         <v>24</v>
       </c>
-      <c r="T65" t="s">
+      <c r="X65" t="s">
         <v>29</v>
       </c>
-      <c r="U65">
+      <c r="Y65">
         <v>24</v>
       </c>
-      <c r="V65">
+      <c r="Z65">
         <v>8</v>
       </c>
-      <c r="W65" t="s">
+      <c r="AA65" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A66" s="24"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="26"/>
-      <c r="S66">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="W66">
         <v>25</v>
       </c>
-      <c r="T66" t="s">
+      <c r="X66" t="s">
         <v>28</v>
       </c>
-      <c r="U66">
+      <c r="Y66">
         <v>25</v>
       </c>
-      <c r="V66">
+      <c r="Z66">
         <v>2</v>
       </c>
-      <c r="W66" t="s">
+      <c r="AA66" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
-      <c r="E67" s="9"/>
-      <c r="S67">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A67" s="7"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="W67">
         <v>31</v>
       </c>
-      <c r="T67" t="s">
+      <c r="X67" t="s">
         <v>30</v>
       </c>
-      <c r="U67">
+      <c r="Y67">
         <v>31</v>
       </c>
-      <c r="V67">
+      <c r="Z67">
         <v>4</v>
       </c>
-      <c r="W67" t="s">
+      <c r="AA67" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A68" s="10"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="12"/>
-      <c r="S68">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="W68">
         <v>33</v>
       </c>
-      <c r="T68" t="s">
+      <c r="X68" t="s">
         <v>31</v>
       </c>
-      <c r="U68">
+      <c r="Y68">
         <v>33</v>
       </c>
-      <c r="V68">
+      <c r="Z68">
         <v>2</v>
       </c>
-      <c r="W68" t="s">
+      <c r="AA68" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S69">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="W69">
         <v>33</v>
       </c>
-      <c r="T69" t="s">
+      <c r="X69" t="s">
         <v>31</v>
       </c>
-      <c r="U69">
+      <c r="Y69">
         <v>33</v>
       </c>
-      <c r="V69">
+      <c r="Z69">
         <v>6</v>
       </c>
-      <c r="W69" t="s">
+      <c r="AA69" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S70">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="W70">
         <v>33</v>
       </c>
-      <c r="T70" t="s">
+      <c r="X70" t="s">
         <v>31</v>
       </c>
-      <c r="U70">
+      <c r="Y70">
         <v>33</v>
       </c>
-      <c r="V70">
+      <c r="Z70">
         <v>2</v>
       </c>
-      <c r="W70" t="s">
+      <c r="AA70" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S71">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="W71">
         <v>53</v>
       </c>
-      <c r="T71" t="s">
+      <c r="X71" t="s">
         <v>32</v>
       </c>
-      <c r="U71">
+      <c r="Y71">
         <v>53</v>
       </c>
-      <c r="V71">
+      <c r="Z71">
         <v>9</v>
       </c>
-      <c r="W71" t="s">
+      <c r="AA71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S72">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="W72">
         <v>53</v>
       </c>
-      <c r="T72" t="s">
+      <c r="X72" t="s">
         <v>32</v>
       </c>
-      <c r="U72">
+      <c r="Y72">
         <v>53</v>
       </c>
-      <c r="V72">
+      <c r="Z72">
         <v>9</v>
       </c>
-      <c r="W72" t="s">
+      <c r="AA72" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S73">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="W73">
         <v>53</v>
       </c>
-      <c r="T73" t="s">
+      <c r="X73" t="s">
         <v>32</v>
       </c>
-      <c r="U73">
+      <c r="Y73">
         <v>53</v>
       </c>
-      <c r="V73">
+      <c r="Z73">
         <v>2</v>
       </c>
-      <c r="W73" t="s">
+      <c r="AA73" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S74">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="W74">
         <v>54</v>
       </c>
-      <c r="T74" t="s">
+      <c r="X74" t="s">
         <v>33</v>
       </c>
-      <c r="U74">
+      <c r="Y74">
         <v>54</v>
       </c>
-      <c r="V74" t="s">
+      <c r="Z74" t="s">
         <v>19</v>
       </c>
-      <c r="W74" t="s">
+      <c r="AA74" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S75">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="W75">
         <v>55</v>
       </c>
-      <c r="T75" t="s">
+      <c r="X75" t="s">
         <v>33</v>
       </c>
-      <c r="U75">
+      <c r="Y75">
         <v>55</v>
       </c>
-      <c r="V75" t="s">
+      <c r="Z75" t="s">
         <v>19</v>
       </c>
-      <c r="W75" t="s">
+      <c r="AA75" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S76">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="W76">
         <v>56</v>
       </c>
-      <c r="T76" t="s">
+      <c r="X76" t="s">
         <v>33</v>
       </c>
-      <c r="U76">
+      <c r="Y76">
         <v>56</v>
       </c>
-      <c r="V76" t="s">
+      <c r="Z76" t="s">
         <v>19</v>
       </c>
-      <c r="W76" t="s">
+      <c r="AA76" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S77">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="W77">
         <v>57</v>
       </c>
-      <c r="T77" t="s">
+      <c r="X77" t="s">
         <v>33</v>
       </c>
-      <c r="U77">
+      <c r="Y77">
         <v>57</v>
       </c>
-      <c r="V77" t="s">
+      <c r="Z77" t="s">
         <v>19</v>
       </c>
-      <c r="W77" t="s">
+      <c r="AA77" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S78">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="W78">
         <v>58</v>
       </c>
-      <c r="T78" t="s">
+      <c r="X78" t="s">
         <v>33</v>
       </c>
-      <c r="U78">
+      <c r="Y78">
         <v>58</v>
       </c>
-      <c r="V78" t="s">
+      <c r="Z78" t="s">
         <v>19</v>
       </c>
-      <c r="W78" t="s">
+      <c r="AA78" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S79">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="W79">
         <v>59</v>
       </c>
-      <c r="T79" t="s">
+      <c r="X79" t="s">
         <v>33</v>
       </c>
-      <c r="U79">
+      <c r="Y79">
         <v>59</v>
       </c>
-      <c r="V79" t="s">
+      <c r="Z79" t="s">
         <v>19</v>
       </c>
-      <c r="W79" t="s">
+      <c r="AA79" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S80">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="W80">
         <v>60</v>
       </c>
-      <c r="T80" t="s">
+      <c r="X80" t="s">
         <v>33</v>
       </c>
-      <c r="U80">
+      <c r="Y80">
         <v>60</v>
       </c>
-      <c r="V80" t="s">
+      <c r="Z80" t="s">
         <v>19</v>
       </c>
-      <c r="W80" t="s">
+      <c r="AA80" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S81">
+    <row r="81" spans="6:27" x14ac:dyDescent="0.2">
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="W81">
         <v>61</v>
       </c>
-      <c r="T81" t="s">
+      <c r="X81" t="s">
         <v>33</v>
       </c>
-      <c r="U81">
+      <c r="Y81">
         <v>61</v>
       </c>
-      <c r="V81" t="s">
+      <c r="Z81" t="s">
         <v>19</v>
       </c>
-      <c r="W81" t="s">
+      <c r="AA81" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S82">
+    <row r="82" spans="6:27" x14ac:dyDescent="0.2">
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="W82">
         <v>62</v>
       </c>
-      <c r="T82" t="s">
+      <c r="X82" t="s">
         <v>33</v>
       </c>
-      <c r="U82">
+      <c r="Y82">
         <v>62</v>
       </c>
-      <c r="V82" t="s">
+      <c r="Z82" t="s">
         <v>19</v>
       </c>
-      <c r="W82" t="s">
+      <c r="AA82" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S83">
+    <row r="83" spans="6:27" x14ac:dyDescent="0.2">
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="W83">
         <v>63</v>
       </c>
-      <c r="T83" t="s">
+      <c r="X83" t="s">
         <v>33</v>
       </c>
-      <c r="U83">
+      <c r="Y83">
         <v>63</v>
       </c>
-      <c r="V83" t="s">
+      <c r="Z83" t="s">
         <v>19</v>
       </c>
-      <c r="W83" t="s">
+      <c r="AA83" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S84">
+    <row r="84" spans="6:27" x14ac:dyDescent="0.2">
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="W84">
         <v>64</v>
       </c>
-      <c r="T84" t="s">
+      <c r="X84" t="s">
         <v>33</v>
       </c>
-      <c r="U84">
+      <c r="Y84">
         <v>64</v>
       </c>
-      <c r="V84" t="s">
+      <c r="Z84" t="s">
         <v>19</v>
       </c>
-      <c r="W84" t="s">
+      <c r="AA84" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S85">
+    <row r="85" spans="6:27" x14ac:dyDescent="0.2">
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="W85">
         <v>65</v>
       </c>
-      <c r="T85" t="s">
+      <c r="X85" t="s">
         <v>33</v>
       </c>
-      <c r="U85">
+      <c r="Y85">
         <v>65</v>
       </c>
-      <c r="V85" t="s">
+      <c r="Z85" t="s">
         <v>19</v>
       </c>
-      <c r="W85" t="s">
+      <c r="AA85" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S86">
+    <row r="86" spans="6:27" x14ac:dyDescent="0.2">
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="W86">
         <v>66</v>
       </c>
-      <c r="T86" t="s">
+      <c r="X86" t="s">
         <v>33</v>
       </c>
-      <c r="U86">
+      <c r="Y86">
         <v>66</v>
       </c>
-      <c r="V86" t="s">
+      <c r="Z86" t="s">
         <v>19</v>
       </c>
-      <c r="W86" t="s">
+      <c r="AA86" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S87">
+    <row r="87" spans="6:27" x14ac:dyDescent="0.2">
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="W87">
         <v>67</v>
       </c>
-      <c r="T87" t="s">
+      <c r="X87" t="s">
         <v>33</v>
       </c>
-      <c r="U87">
+      <c r="Y87">
         <v>67</v>
       </c>
-      <c r="V87" t="s">
+      <c r="Z87" t="s">
         <v>19</v>
       </c>
-      <c r="W87" t="s">
+      <c r="AA87" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S88">
+    <row r="88" spans="6:27" x14ac:dyDescent="0.2">
+      <c r="W88">
         <v>68</v>
       </c>
-      <c r="T88" t="s">
+      <c r="X88" t="s">
         <v>33</v>
       </c>
-      <c r="U88">
+      <c r="Y88">
         <v>68</v>
       </c>
-      <c r="V88" t="s">
+      <c r="Z88" t="s">
         <v>19</v>
       </c>
-      <c r="W88" t="s">
+      <c r="AA88" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S89">
+    <row r="89" spans="6:27" x14ac:dyDescent="0.2">
+      <c r="W89">
         <v>69</v>
       </c>
-      <c r="T89" t="s">
+      <c r="X89" t="s">
         <v>33</v>
       </c>
-      <c r="U89">
+      <c r="Y89">
         <v>69</v>
       </c>
-      <c r="V89" t="s">
+      <c r="Z89" t="s">
         <v>19</v>
       </c>
-      <c r="W89" t="s">
+      <c r="AA89" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S90">
+    <row r="90" spans="6:27" x14ac:dyDescent="0.2">
+      <c r="W90">
         <v>70</v>
       </c>
-      <c r="T90" t="s">
+      <c r="X90" t="s">
         <v>33</v>
       </c>
-      <c r="U90">
+      <c r="Y90">
         <v>70</v>
       </c>
-      <c r="V90" t="s">
+      <c r="Z90" t="s">
         <v>19</v>
       </c>
-      <c r="W90" t="s">
+      <c r="AA90" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S91">
+    <row r="91" spans="6:27" x14ac:dyDescent="0.2">
+      <c r="W91">
         <v>71</v>
       </c>
-      <c r="T91" t="s">
+      <c r="X91" t="s">
         <v>34</v>
       </c>
-      <c r="U91">
+      <c r="Y91">
         <v>71</v>
       </c>
-      <c r="V91">
+      <c r="Z91">
         <v>12</v>
       </c>
-      <c r="W91" t="s">
+      <c r="AA91" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S92">
+    <row r="92" spans="6:27" x14ac:dyDescent="0.2">
+      <c r="W92">
         <v>71</v>
       </c>
-      <c r="T92" t="s">
+      <c r="X92" t="s">
         <v>34</v>
       </c>
-      <c r="U92">
+      <c r="Y92">
         <v>71</v>
       </c>
-      <c r="V92">
+      <c r="Z92">
         <v>1</v>
       </c>
-      <c r="W92" t="s">
+      <c r="AA92" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S93">
+    <row r="93" spans="6:27" x14ac:dyDescent="0.2">
+      <c r="W93">
         <v>71</v>
       </c>
-      <c r="T93" t="s">
+      <c r="X93" t="s">
         <v>34</v>
       </c>
-      <c r="U93">
+      <c r="Y93">
         <v>71</v>
       </c>
-      <c r="V93">
+      <c r="Z93">
         <v>12</v>
       </c>
-      <c r="W93" t="s">
+      <c r="AA93" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S94">
+    <row r="94" spans="6:27" x14ac:dyDescent="0.2">
+      <c r="W94">
         <v>72</v>
       </c>
-      <c r="T94" t="s">
+      <c r="X94" t="s">
         <v>35</v>
       </c>
-      <c r="U94">
+      <c r="Y94">
         <v>72</v>
       </c>
-      <c r="V94">
+      <c r="Z94">
         <v>10</v>
       </c>
-      <c r="W94" t="s">
+      <c r="AA94" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S95">
+    <row r="95" spans="6:27" x14ac:dyDescent="0.2">
+      <c r="W95">
         <v>72</v>
       </c>
-      <c r="T95" t="s">
+      <c r="X95" t="s">
         <v>35</v>
       </c>
-      <c r="U95">
+      <c r="Y95">
         <v>72</v>
       </c>
-      <c r="V95">
+      <c r="Z95">
         <v>1</v>
       </c>
-      <c r="W95" t="s">
+      <c r="AA95" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S96">
+    <row r="96" spans="6:27" x14ac:dyDescent="0.2">
+      <c r="W96">
         <v>72</v>
       </c>
-      <c r="T96" t="s">
+      <c r="X96" t="s">
         <v>35</v>
       </c>
-      <c r="U96">
+      <c r="Y96">
         <v>72</v>
       </c>
-      <c r="V96">
+      <c r="Z96">
         <v>10</v>
       </c>
-      <c r="W96" t="s">
+      <c r="AA96" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S97">
+    <row r="97" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W97">
         <v>73</v>
       </c>
-      <c r="T97" t="s">
+      <c r="X97" t="s">
         <v>36</v>
       </c>
-      <c r="U97">
+      <c r="Y97">
         <v>73</v>
       </c>
-      <c r="V97">
+      <c r="Z97">
         <v>1</v>
       </c>
-      <c r="W97" t="s">
+      <c r="AA97" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S98">
+    <row r="98" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W98">
         <v>74</v>
       </c>
-      <c r="T98" t="s">
+      <c r="X98" t="s">
         <v>37</v>
       </c>
-      <c r="U98">
+      <c r="Y98">
         <v>74</v>
       </c>
-      <c r="V98">
+      <c r="Z98">
         <v>2</v>
       </c>
-      <c r="W98" t="s">
+      <c r="AA98" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S99">
+    <row r="99" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W99">
         <v>75</v>
       </c>
-      <c r="T99" t="s">
+      <c r="X99" t="s">
         <v>38</v>
       </c>
-      <c r="U99">
+      <c r="Y99">
         <v>75</v>
       </c>
-      <c r="V99">
+      <c r="Z99">
         <v>3</v>
       </c>
-      <c r="W99" t="s">
+      <c r="AA99" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S100">
+    <row r="100" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W100">
         <v>76</v>
       </c>
-      <c r="T100" t="s">
+      <c r="X100" t="s">
         <v>39</v>
       </c>
-      <c r="U100">
+      <c r="Y100">
         <v>76</v>
       </c>
-      <c r="V100">
+      <c r="Z100">
         <v>5</v>
       </c>
-      <c r="W100" t="s">
+      <c r="AA100" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S101">
+    <row r="101" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W101">
         <v>76</v>
       </c>
-      <c r="T101" t="s">
+      <c r="X101" t="s">
         <v>39</v>
       </c>
-      <c r="U101">
+      <c r="Y101">
         <v>76</v>
       </c>
-      <c r="V101">
+      <c r="Z101">
         <v>2</v>
       </c>
-      <c r="W101" t="s">
+      <c r="AA101" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S102">
+    <row r="102" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W102">
         <v>76</v>
       </c>
-      <c r="T102" t="s">
+      <c r="X102" t="s">
         <v>39</v>
       </c>
-      <c r="U102">
+      <c r="Y102">
         <v>76</v>
       </c>
-      <c r="V102">
+      <c r="Z102">
         <v>3</v>
       </c>
-      <c r="W102" t="s">
+      <c r="AA102" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S103">
+    <row r="103" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W103">
         <v>77</v>
       </c>
-      <c r="T103" t="s">
+      <c r="X103" t="s">
         <v>40</v>
       </c>
-      <c r="U103">
+      <c r="Y103">
         <v>77</v>
       </c>
-      <c r="V103">
+      <c r="Z103">
         <v>1</v>
       </c>
-      <c r="W103" t="s">
+      <c r="AA103" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S104">
+    <row r="104" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W104">
         <v>78</v>
       </c>
-      <c r="T104" t="s">
+      <c r="X104" t="s">
         <v>41</v>
       </c>
-      <c r="U104">
+      <c r="Y104">
         <v>78</v>
       </c>
-      <c r="V104">
+      <c r="Z104">
         <v>2</v>
       </c>
-      <c r="W104" t="s">
+      <c r="AA104" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S105">
+    <row r="105" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W105">
         <v>79</v>
       </c>
-      <c r="T105" t="s">
+      <c r="X105" t="s">
         <v>42</v>
       </c>
-      <c r="U105">
+      <c r="Y105">
         <v>79</v>
       </c>
-      <c r="V105">
+      <c r="Z105">
         <v>3</v>
       </c>
-      <c r="W105" t="s">
+      <c r="AA105" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S106">
+    <row r="106" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W106">
         <v>80</v>
       </c>
-      <c r="T106" t="s">
+      <c r="X106" t="s">
         <v>43</v>
       </c>
-      <c r="U106">
+      <c r="Y106">
         <v>80</v>
       </c>
-      <c r="V106">
+      <c r="Z106">
         <v>5</v>
       </c>
-      <c r="W106" t="s">
+      <c r="AA106" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S107">
+    <row r="107" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W107">
         <v>80</v>
       </c>
-      <c r="T107" t="s">
+      <c r="X107" t="s">
         <v>43</v>
       </c>
-      <c r="U107">
+      <c r="Y107">
         <v>80</v>
       </c>
-      <c r="V107">
+      <c r="Z107">
         <v>2</v>
       </c>
-      <c r="W107" t="s">
+      <c r="AA107" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S108">
+    <row r="108" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W108">
         <v>80</v>
       </c>
-      <c r="T108" t="s">
+      <c r="X108" t="s">
         <v>43</v>
       </c>
-      <c r="U108">
+      <c r="Y108">
         <v>80</v>
       </c>
-      <c r="V108">
+      <c r="Z108">
         <v>3</v>
       </c>
-      <c r="W108" t="s">
+      <c r="AA108" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S109">
+    <row r="109" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W109">
         <v>81</v>
       </c>
-      <c r="T109" t="s">
+      <c r="X109" t="s">
         <v>44</v>
       </c>
-      <c r="U109">
+      <c r="Y109">
         <v>81</v>
       </c>
-      <c r="V109">
+      <c r="Z109">
         <v>1</v>
       </c>
-      <c r="W109" t="s">
+      <c r="AA109" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S110">
+    <row r="110" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W110">
         <v>82</v>
       </c>
-      <c r="T110" t="s">
+      <c r="X110" t="s">
         <v>45</v>
       </c>
-      <c r="U110">
+      <c r="Y110">
         <v>82</v>
       </c>
-      <c r="V110">
+      <c r="Z110">
         <v>2</v>
       </c>
-      <c r="W110" t="s">
+      <c r="AA110" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S111">
+    <row r="111" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W111">
         <v>83</v>
       </c>
-      <c r="T111" t="s">
+      <c r="X111" t="s">
         <v>46</v>
       </c>
-      <c r="U111">
+      <c r="Y111">
         <v>83</v>
       </c>
-      <c r="V111">
+      <c r="Z111">
         <v>3</v>
       </c>
-      <c r="W111" t="s">
+      <c r="AA111" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S112">
+    <row r="112" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W112">
         <v>84</v>
       </c>
-      <c r="T112" t="s">
+      <c r="X112" t="s">
         <v>47</v>
       </c>
-      <c r="U112">
+      <c r="Y112">
         <v>84</v>
       </c>
-      <c r="V112">
+      <c r="Z112">
         <v>5</v>
       </c>
-      <c r="W112" t="s">
+      <c r="AA112" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S113">
+    <row r="113" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W113">
         <v>84</v>
       </c>
-      <c r="T113" t="s">
+      <c r="X113" t="s">
         <v>47</v>
       </c>
-      <c r="U113">
+      <c r="Y113">
         <v>84</v>
       </c>
-      <c r="V113">
+      <c r="Z113">
         <v>2</v>
       </c>
-      <c r="W113" t="s">
+      <c r="AA113" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S114">
+    <row r="114" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W114">
         <v>84</v>
       </c>
-      <c r="T114" t="s">
+      <c r="X114" t="s">
         <v>47</v>
       </c>
-      <c r="U114">
+      <c r="Y114">
         <v>84</v>
       </c>
-      <c r="V114">
+      <c r="Z114">
         <v>3</v>
       </c>
-      <c r="W114" t="s">
+      <c r="AA114" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S115">
+    <row r="115" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W115">
         <v>85</v>
       </c>
-      <c r="T115" t="s">
+      <c r="X115" t="s">
         <v>48</v>
       </c>
-      <c r="U115">
+      <c r="Y115">
         <v>85</v>
       </c>
-      <c r="V115">
+      <c r="Z115">
         <v>1</v>
       </c>
-      <c r="W115" t="s">
+      <c r="AA115" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S116">
+    <row r="116" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W116">
         <v>86</v>
       </c>
-      <c r="T116" t="s">
+      <c r="X116" t="s">
         <v>49</v>
       </c>
-      <c r="U116">
+      <c r="Y116">
         <v>86</v>
       </c>
-      <c r="V116">
+      <c r="Z116">
         <v>3</v>
       </c>
-      <c r="W116" t="s">
+      <c r="AA116" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S117">
+    <row r="117" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W117">
         <v>87</v>
       </c>
-      <c r="T117" t="s">
+      <c r="X117" t="s">
         <v>50</v>
       </c>
-      <c r="U117">
+      <c r="Y117">
         <v>87</v>
       </c>
-      <c r="V117">
+      <c r="Z117">
         <v>1</v>
       </c>
-      <c r="W117" t="s">
+      <c r="AA117" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S118">
+    <row r="118" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W118">
         <v>88</v>
       </c>
-      <c r="T118" t="s">
+      <c r="X118" t="s">
         <v>51</v>
       </c>
-      <c r="U118">
+      <c r="Y118">
         <v>88</v>
       </c>
-      <c r="V118">
+      <c r="Z118">
         <v>3</v>
       </c>
-      <c r="W118" t="s">
+      <c r="AA118" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S119">
+    <row r="119" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W119">
         <v>89</v>
       </c>
-      <c r="T119" t="s">
+      <c r="X119" t="s">
         <v>52</v>
       </c>
-      <c r="U119">
+      <c r="Y119">
         <v>89</v>
       </c>
-      <c r="V119">
+      <c r="Z119">
         <v>4</v>
       </c>
-      <c r="W119" t="s">
+      <c r="AA119" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S120">
+    <row r="120" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W120">
         <v>89</v>
       </c>
-      <c r="T120" t="s">
+      <c r="X120" t="s">
         <v>52</v>
       </c>
-      <c r="U120">
+      <c r="Y120">
         <v>89</v>
       </c>
-      <c r="V120">
+      <c r="Z120">
         <v>2</v>
       </c>
-      <c r="W120" t="s">
+      <c r="AA120" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S121">
+    <row r="121" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W121">
         <v>90</v>
       </c>
-      <c r="T121" t="s">
+      <c r="X121" t="s">
         <v>53</v>
       </c>
-      <c r="U121">
+      <c r="Y121">
         <v>90</v>
       </c>
-      <c r="V121">
+      <c r="Z121">
         <v>2</v>
       </c>
-      <c r="W121" t="s">
+      <c r="AA121" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S122">
+    <row r="122" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W122">
         <v>90</v>
       </c>
-      <c r="T122" t="s">
+      <c r="X122" t="s">
         <v>53</v>
       </c>
-      <c r="U122">
+      <c r="Y122">
         <v>90</v>
       </c>
-      <c r="V122">
+      <c r="Z122">
         <v>5</v>
       </c>
-      <c r="W122" t="s">
+      <c r="AA122" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S123">
+    <row r="123" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W123">
         <v>91</v>
       </c>
-      <c r="T123" t="s">
+      <c r="X123" t="s">
         <v>54</v>
       </c>
-      <c r="U123">
+      <c r="Y123">
         <v>91</v>
       </c>
-      <c r="V123">
+      <c r="Z123">
         <v>1</v>
       </c>
-      <c r="W123" t="s">
+      <c r="AA123" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S124">
+    <row r="124" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W124">
         <v>92</v>
       </c>
-      <c r="T124" t="s">
+      <c r="X124" t="s">
         <v>55</v>
       </c>
-      <c r="U124">
+      <c r="Y124">
         <v>92</v>
       </c>
-      <c r="V124">
+      <c r="Z124">
         <v>3</v>
       </c>
-      <c r="W124" t="s">
+      <c r="AA124" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S125">
+    <row r="125" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W125">
         <v>93</v>
       </c>
-      <c r="T125" t="s">
+      <c r="X125" t="s">
         <v>56</v>
       </c>
-      <c r="U125">
+      <c r="Y125">
         <v>93</v>
       </c>
-      <c r="V125">
+      <c r="Z125">
         <v>2</v>
       </c>
-      <c r="W125" t="s">
+      <c r="AA125" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="19:23" x14ac:dyDescent="0.2">
-      <c r="S126">
+    <row r="126" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W126">
         <v>93</v>
       </c>
-      <c r="T126" t="s">
+      <c r="X126" t="s">
         <v>56</v>
       </c>
-      <c r="U126">
+      <c r="Y126">
         <v>93</v>
       </c>
-      <c r="V126">
+      <c r="Z126">
         <v>4</v>
       </c>
-      <c r="W126" t="s">
+      <c r="AA126" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A64:E64"/>
     <mergeCell ref="A65:E65"/>
     <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="A64:I64"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{996C10FE-B6B9-BF43-92B2-253B0EC47116}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="54" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
+  <pageSetup scale="45" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="8"/>
 </worksheet>
 </file>
--- a/Teensy_1U_MIDI_8x14/Teensy_1U_MIDI_8x14_bom.xlsx
+++ b/Teensy_1U_MIDI_8x14/Teensy_1U_MIDI_8x14_bom.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Documents/GitHub/Midi-boards/Teensy_1U_MIDI_8x14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF48206-DA56-774E-A06E-A31AFA9AD6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9A07AC-AE7E-5D4C-9757-C775548016A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="1020" windowWidth="39000" windowHeight="26520" xr2:uid="{71D61E79-0498-904A-B799-3403509F1DD9}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21260" xr2:uid="{71D61E79-0498-904A-B799-3403509F1DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Teensy 1U" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Teensy 1U'!$A$1:$I$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Teensy 1U'!$A$1:$I$71</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="174">
   <si>
     <t>R8</t>
   </si>
@@ -445,9 +445,6 @@
     <t>(optional)</t>
   </si>
   <si>
-    <t>M1.4 screws black round steel</t>
-  </si>
-  <si>
     <t>Aluminum front panel</t>
   </si>
   <si>
@@ -530,6 +527,24 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>DIP-14 W7.62mm IC socket round pins</t>
+  </si>
+  <si>
+    <t>DIP14</t>
+  </si>
+  <si>
+    <t>DIP-8 W7.62mm IC socket round pins</t>
+  </si>
+  <si>
+    <t>DIP8</t>
+  </si>
+  <si>
+    <t>M1.7 screws black round steel</t>
+  </si>
+  <si>
+    <t>M3 x 6mm</t>
   </si>
 </sst>
 </file>
@@ -710,7 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -737,6 +752,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -746,38 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1093,11 +1101,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AA126"/>
+  <dimension ref="A2:AA129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1128,21 +1136,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="80" x14ac:dyDescent="0.25">
@@ -1161,31 +1169,31 @@
       <c r="E4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="H4" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="I4" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="I4" s="27" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
@@ -1198,23 +1206,23 @@
         <v>1</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
@@ -1223,17 +1231,17 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
@@ -1243,14 +1251,14 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
@@ -1260,14 +1268,14 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
@@ -1277,27 +1285,27 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
@@ -1317,7 +1325,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1336,13 +1344,13 @@
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1361,13 +1369,13 @@
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1386,20 +1394,20 @@
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -1409,10 +1417,10 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
@@ -1430,20 +1438,20 @@
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -1453,10 +1461,10 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -1474,13 +1482,13 @@
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1499,13 +1507,13 @@
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1524,20 +1532,20 @@
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
@@ -1547,10 +1555,10 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
     </row>
     <row r="28" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
@@ -1568,13 +1576,13 @@
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1593,13 +1601,13 @@
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1618,13 +1626,13 @@
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1643,13 +1651,13 @@
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -1668,20 +1676,20 @@
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
@@ -1691,10 +1699,10 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
@@ -1712,13 +1720,13 @@
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1737,13 +1745,13 @@
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1762,13 +1770,13 @@
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -1787,20 +1795,20 @@
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
@@ -1810,10 +1818,10 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
     </row>
     <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
@@ -1831,13 +1839,13 @@
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1851,446 +1859,448 @@
       <c r="D42" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="33">
         <v>8</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>86</v>
+        <v>92</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="E43" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>125</v>
+        <v>83</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E44" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>127</v>
+        <v>86</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="E46" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="15"/>
       <c r="G46" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="E47" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+      <c r="G47" s="15" t="s">
+        <v>167</v>
+      </c>
       <c r="H47" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E48" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="3" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="E49" s="3">
         <v>2</v>
       </c>
       <c r="F49" s="15"/>
-      <c r="G49" s="15" t="s">
-        <v>168</v>
-      </c>
+      <c r="G49" s="15"/>
       <c r="H49" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="E50" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="E51" s="3">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
+      <c r="G51" s="15" t="s">
+        <v>167</v>
+      </c>
       <c r="H51" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C52" s="10" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="E52" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
+      <c r="G52" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>167</v>
+      </c>
       <c r="I52" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
-      <c r="B53" s="3"/>
+      <c r="B53" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="C53" s="10" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E53" s="3">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
+      <c r="H53" s="15" t="s">
+        <v>167</v>
+      </c>
       <c r="I53" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="3"/>
       <c r="C54" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E54" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="3"/>
       <c r="C55" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="E55" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="3"/>
       <c r="C56" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="E56" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="3"/>
       <c r="C57" s="10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E57" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
-        <v>139</v>
-      </c>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="15"/>
       <c r="B58" s="3"/>
       <c r="C58" s="10" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E58" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="W59">
-        <v>24</v>
-      </c>
-      <c r="X59" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y59">
-        <v>24</v>
-      </c>
-      <c r="Z59">
-        <v>33</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="36"/>
-      <c r="W60">
-        <v>24</v>
-      </c>
-      <c r="X60" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y60">
-        <v>24</v>
-      </c>
-      <c r="Z60">
-        <v>8</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-    </row>
-    <row r="62" spans="1:27" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
+      <c r="I58" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="15"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6</v>
+      </c>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="15"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3</v>
+      </c>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
       <c r="W62">
         <v>24</v>
       </c>
@@ -2301,58 +2311,59 @@
         <v>24</v>
       </c>
       <c r="Z62">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="AA62" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="25"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-    </row>
-    <row r="64" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="W64">
+      <c r="A63" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="27"/>
+      <c r="W63">
         <v>24</v>
       </c>
-      <c r="X64" t="s">
+      <c r="X63" t="s">
         <v>29</v>
       </c>
-      <c r="Y64">
+      <c r="Y63">
         <v>24</v>
       </c>
-      <c r="Z64">
+      <c r="Z63">
         <v>8</v>
       </c>
-      <c r="AA64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="34"/>
+      <c r="AA63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+    </row>
+    <row r="65" spans="1:27" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
       <c r="F65" s="32"/>
       <c r="G65" s="32"/>
       <c r="H65" s="32"/>
@@ -2367,268 +2378,269 @@
         <v>24</v>
       </c>
       <c r="Z65">
+        <v>1</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+    </row>
+    <row r="67" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="W67">
+        <v>24</v>
+      </c>
+      <c r="X67" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y67">
+        <v>24</v>
+      </c>
+      <c r="Z67">
         <v>8</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AA67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="W68">
+        <v>24</v>
+      </c>
+      <c r="X68" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y68">
+        <v>24</v>
+      </c>
+      <c r="Z68">
+        <v>8</v>
+      </c>
+      <c r="AA68" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="W66">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A69" s="31"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="W69">
         <v>25</v>
       </c>
-      <c r="X66" t="s">
+      <c r="X69" t="s">
         <v>28</v>
       </c>
-      <c r="Y66">
+      <c r="Y69">
         <v>25</v>
       </c>
-      <c r="Z66">
+      <c r="Z69">
         <v>2</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AA69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="W67">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A70" s="7"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="W70">
         <v>31</v>
       </c>
-      <c r="X67" t="s">
+      <c r="X70" t="s">
         <v>30</v>
       </c>
-      <c r="Y67">
+      <c r="Y70">
         <v>31</v>
       </c>
-      <c r="Z67">
+      <c r="Z70">
         <v>4</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AA70" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="W68">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="W71">
         <v>33</v>
       </c>
-      <c r="X68" t="s">
+      <c r="X71" t="s">
         <v>31</v>
       </c>
-      <c r="Y68">
+      <c r="Y71">
         <v>33</v>
       </c>
-      <c r="Z68">
+      <c r="Z71">
         <v>2</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AA71" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="W69">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="W72">
         <v>33</v>
       </c>
-      <c r="X69" t="s">
+      <c r="X72" t="s">
         <v>31</v>
       </c>
-      <c r="Y69">
+      <c r="Y72">
         <v>33</v>
       </c>
-      <c r="Z69">
+      <c r="Z72">
         <v>6</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AA72" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="W70">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="W73">
         <v>33</v>
       </c>
-      <c r="X70" t="s">
+      <c r="X73" t="s">
         <v>31</v>
       </c>
-      <c r="Y70">
+      <c r="Y73">
         <v>33</v>
-      </c>
-      <c r="Z70">
-        <v>2</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="W71">
-        <v>53</v>
-      </c>
-      <c r="X71" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y71">
-        <v>53</v>
-      </c>
-      <c r="Z71">
-        <v>9</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="W72">
-        <v>53</v>
-      </c>
-      <c r="X72" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y72">
-        <v>53</v>
-      </c>
-      <c r="Z72">
-        <v>9</v>
-      </c>
-      <c r="AA72" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-      <c r="W73">
-        <v>53</v>
-      </c>
-      <c r="X73" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y73">
-        <v>53</v>
       </c>
       <c r="Z73">
         <v>2</v>
       </c>
       <c r="AA73" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
       <c r="W74">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y74">
-        <v>54</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>19</v>
+        <v>53</v>
+      </c>
+      <c r="Z74">
+        <v>9</v>
       </c>
       <c r="AA74" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
       <c r="W75">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y75">
-        <v>55</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>19</v>
+        <v>53</v>
+      </c>
+      <c r="Z75">
+        <v>9</v>
       </c>
       <c r="AA75" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
       <c r="W76">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y76">
-        <v>56</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>19</v>
+        <v>53</v>
+      </c>
+      <c r="Z76">
+        <v>2</v>
       </c>
       <c r="AA76" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
       <c r="W77">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="X77" t="s">
         <v>33</v>
       </c>
       <c r="Y77">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Z77" t="s">
         <v>19</v>
@@ -2638,18 +2650,18 @@
       </c>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
       <c r="W78">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="X78" t="s">
         <v>33</v>
       </c>
       <c r="Y78">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Z78" t="s">
         <v>19</v>
@@ -2659,18 +2671,18 @@
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
       <c r="W79">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="X79" t="s">
         <v>33</v>
       </c>
       <c r="Y79">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Z79" t="s">
         <v>19</v>
@@ -2680,18 +2692,18 @@
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
       <c r="W80">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X80" t="s">
         <v>33</v>
       </c>
       <c r="Y80">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Z80" t="s">
         <v>19</v>
@@ -2701,18 +2713,18 @@
       </c>
     </row>
     <row r="81" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
       <c r="W81">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="X81" t="s">
         <v>33</v>
       </c>
       <c r="Y81">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Z81" t="s">
         <v>19</v>
@@ -2722,18 +2734,18 @@
       </c>
     </row>
     <row r="82" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
       <c r="W82">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="X82" t="s">
         <v>33</v>
       </c>
       <c r="Y82">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Z82" t="s">
         <v>19</v>
@@ -2743,18 +2755,18 @@
       </c>
     </row>
     <row r="83" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
       <c r="W83">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="X83" t="s">
         <v>33</v>
       </c>
       <c r="Y83">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Z83" t="s">
         <v>19</v>
@@ -2764,18 +2776,18 @@
       </c>
     </row>
     <row r="84" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
       <c r="W84">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="X84" t="s">
         <v>33</v>
       </c>
       <c r="Y84">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Z84" t="s">
         <v>19</v>
@@ -2785,18 +2797,18 @@
       </c>
     </row>
     <row r="85" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
       <c r="W85">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X85" t="s">
         <v>33</v>
       </c>
       <c r="Y85">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z85" t="s">
         <v>19</v>
@@ -2806,18 +2818,18 @@
       </c>
     </row>
     <row r="86" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
       <c r="W86">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="X86" t="s">
         <v>33</v>
       </c>
       <c r="Y86">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z86" t="s">
         <v>19</v>
@@ -2827,18 +2839,18 @@
       </c>
     </row>
     <row r="87" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
       <c r="W87">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="X87" t="s">
         <v>33</v>
       </c>
       <c r="Y87">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Z87" t="s">
         <v>19</v>
@@ -2848,14 +2860,18 @@
       </c>
     </row>
     <row r="88" spans="6:27" x14ac:dyDescent="0.2">
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
       <c r="W88">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="X88" t="s">
         <v>33</v>
       </c>
       <c r="Y88">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Z88" t="s">
         <v>19</v>
@@ -2865,14 +2881,18 @@
       </c>
     </row>
     <row r="89" spans="6:27" x14ac:dyDescent="0.2">
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
       <c r="W89">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="X89" t="s">
         <v>33</v>
       </c>
       <c r="Y89">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Z89" t="s">
         <v>19</v>
@@ -2882,14 +2902,18 @@
       </c>
     </row>
     <row r="90" spans="6:27" x14ac:dyDescent="0.2">
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
       <c r="W90">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="X90" t="s">
         <v>33</v>
       </c>
       <c r="Y90">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Z90" t="s">
         <v>19</v>
@@ -2900,50 +2924,50 @@
     </row>
     <row r="91" spans="6:27" x14ac:dyDescent="0.2">
       <c r="W91">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="X91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y91">
-        <v>71</v>
-      </c>
-      <c r="Z91">
-        <v>12</v>
+        <v>68</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>19</v>
       </c>
       <c r="AA91" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="6:27" x14ac:dyDescent="0.2">
       <c r="W92">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="X92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y92">
-        <v>71</v>
-      </c>
-      <c r="Z92">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>19</v>
       </c>
       <c r="AA92" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="6:27" x14ac:dyDescent="0.2">
       <c r="W93">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y93">
-        <v>71</v>
-      </c>
-      <c r="Z93">
-        <v>12</v>
+        <v>70</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>19</v>
       </c>
       <c r="AA93" t="s">
         <v>21</v>
@@ -2951,118 +2975,118 @@
     </row>
     <row r="94" spans="6:27" x14ac:dyDescent="0.2">
       <c r="W94">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y94">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z94">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA94" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="6:27" x14ac:dyDescent="0.2">
       <c r="W95">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y95">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z95">
         <v>1</v>
       </c>
       <c r="AA95" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="6:27" x14ac:dyDescent="0.2">
       <c r="W96">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y96">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z96">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA96" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W97">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y97">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z97">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AA97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W98">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="X98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y98">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z98">
+        <v>1</v>
+      </c>
+      <c r="AA98" t="s">
         <v>2</v>
-      </c>
-      <c r="AA98" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="99" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W99">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="X99" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y99">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z99">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AA99" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W100">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X100" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y100">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA100" t="s">
         <v>22</v>
@@ -3070,101 +3094,101 @@
     </row>
     <row r="101" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W101">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X101" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y101">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z101">
         <v>2</v>
       </c>
       <c r="AA101" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W102">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y102">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z102">
         <v>3</v>
       </c>
       <c r="AA102" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W103">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y103">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W104">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="X104" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Y104">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Z104">
         <v>2</v>
       </c>
       <c r="AA104" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W105">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="X105" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y105">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Z105">
         <v>3</v>
       </c>
       <c r="AA105" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W106">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="X106" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y106">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Z106">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA106" t="s">
         <v>23</v>
@@ -3172,101 +3196,101 @@
     </row>
     <row r="107" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W107">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X107" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y107">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Z107">
         <v>2</v>
       </c>
       <c r="AA107" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W108">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y108">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z108">
         <v>3</v>
       </c>
       <c r="AA108" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W109">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y109">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W110">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X110" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y110">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z110">
         <v>2</v>
       </c>
       <c r="AA110" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W111">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="X111" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Y111">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Z111">
         <v>3</v>
       </c>
       <c r="AA111" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W112">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="X112" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Y112">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Z112">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA112" t="s">
         <v>24</v>
@@ -3274,169 +3298,169 @@
     </row>
     <row r="113" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W113">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="X113" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Y113">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z113">
         <v>2</v>
       </c>
       <c r="AA113" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W114">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y114">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z114">
         <v>3</v>
       </c>
       <c r="AA114" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W115">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y115">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA115" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W116">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X116" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Y116">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA116" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W117">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X117" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Y117">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA117" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W118">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="X118" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Y118">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Z118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA118" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W119">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="X119" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Y119">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Z119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA119" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W120">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X120" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y120">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Z120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA120" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W121">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="X121" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y121">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA121" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W122">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="X122" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y122">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z122">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA122" t="s">
         <v>26</v>
@@ -3444,84 +3468,135 @@
     </row>
     <row r="123" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W123">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X123" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Y123">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z123">
+        <v>2</v>
+      </c>
+      <c r="AA123" t="s">
         <v>1</v>
-      </c>
-      <c r="AA123" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="124" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W124">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X124" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y124">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Z124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA124" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W125">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="X125" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y125">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Z125">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA125" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="23:27" x14ac:dyDescent="0.2">
       <c r="W126">
+        <v>91</v>
+      </c>
+      <c r="X126" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y126">
+        <v>91</v>
+      </c>
+      <c r="Z126">
+        <v>1</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W127">
+        <v>92</v>
+      </c>
+      <c r="X127" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y127">
+        <v>92</v>
+      </c>
+      <c r="Z127">
+        <v>3</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W128">
         <v>93</v>
       </c>
-      <c r="X126" t="s">
+      <c r="X128" t="s">
         <v>56</v>
       </c>
-      <c r="Y126">
+      <c r="Y128">
         <v>93</v>
       </c>
-      <c r="Z126">
+      <c r="Z128">
+        <v>2</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="23:27" x14ac:dyDescent="0.2">
+      <c r="W129">
+        <v>93</v>
+      </c>
+      <c r="X129" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y129">
+        <v>93</v>
+      </c>
+      <c r="Z129">
         <v>4</v>
       </c>
-      <c r="AA126" t="s">
+      <c r="AA129" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="A67:I67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{996C10FE-B6B9-BF43-92B2-253B0EC47116}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="45" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="8"/>
+  <pageSetup scale="45" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Teensy_1U_MIDI_8x14/Teensy_1U_MIDI_8x14_bom.xlsx
+++ b/Teensy_1U_MIDI_8x14/Teensy_1U_MIDI_8x14_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrei/Documents/GitHub/Midi-boards/Teensy_1U_MIDI_8x14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9A07AC-AE7E-5D4C-9757-C775548016A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE8F42C-B434-3F41-B492-CEA9224B6DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21260" xr2:uid="{71D61E79-0498-904A-B799-3403509F1DD9}"/>
   </bookViews>
@@ -298,9 +298,6 @@
     <t>Teensy_1U_MIDI_8x14 main PCB</t>
   </si>
   <si>
-    <t>74HC14</t>
-  </si>
-  <si>
     <t>U11,U13,U14</t>
   </si>
   <si>
@@ -545,6 +542,9 @@
   </si>
   <si>
     <t>M3 x 6mm</t>
+  </si>
+  <si>
+    <t>74HCT14</t>
   </si>
 </sst>
 </file>
@@ -776,6 +776,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -785,7 +786,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1104,8 +1104,8 @@
   <dimension ref="A2:AA129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J56" sqref="J56"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1136,13 +1136,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="80" x14ac:dyDescent="0.25">
@@ -1170,16 +1170,16 @@
         <v>61</v>
       </c>
       <c r="F4" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="H4" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="I4" s="20" t="s">
         <v>165</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1206,23 +1206,23 @@
         <v>1</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
@@ -1231,17 +1231,17 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
@@ -1251,14 +1251,14 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
@@ -1268,14 +1268,14 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
@@ -1285,7 +1285,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>88</v>
@@ -1325,7 +1325,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1344,63 +1344,63 @@
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1411,7 +1411,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1425,26 +1425,26 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E20" s="3">
         <v>12</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1469,7 +1469,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>66</v>
@@ -1482,63 +1482,63 @@
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1563,7 +1563,7 @@
     <row r="28" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>6</v>
@@ -1576,44 +1576,44 @@
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" s="3">
         <v>8</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>6</v>
@@ -1626,19 +1626,19 @@
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>6</v>
@@ -1651,38 +1651,38 @@
       </c>
       <c r="F31" s="15"/>
       <c r="G31" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E32" s="3">
         <v>12</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1720,88 +1720,88 @@
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1826,7 +1826,7 @@
     <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>72</v>
@@ -1839,63 +1839,63 @@
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C42" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" t="s">
         <v>131</v>
       </c>
-      <c r="D42" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="33">
+      <c r="E42" s="28">
         <v>8</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="E43" s="3">
         <v>3</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -1904,29 +1904,29 @@
         <v>83</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="E44" s="3">
         <v>8</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>86</v>
@@ -1939,13 +1939,13 @@
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -1954,85 +1954,85 @@
         <v>85</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
       </c>
       <c r="F46" s="15"/>
       <c r="G46" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>126</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="E47" s="3">
         <v>1</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E48" s="3">
         <v>2</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="B49" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="E49" s="3">
         <v>2</v>
@@ -2040,35 +2040,35 @@
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="D50" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2087,13 +2087,13 @@
       </c>
       <c r="F51" s="15"/>
       <c r="G51" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2112,25 +2112,25 @@
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="B53" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E53" s="3">
         <v>48</v>
@@ -2138,20 +2138,20 @@
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="3"/>
       <c r="C54" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="E54" s="3">
         <v>3</v>
@@ -2160,17 +2160,17 @@
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="3"/>
       <c r="C55" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E55" s="3">
         <v>3</v>
@@ -2179,17 +2179,17 @@
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="3"/>
       <c r="C56" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E56" s="3">
         <v>10</v>
@@ -2198,17 +2198,17 @@
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="3"/>
       <c r="C57" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E57" s="3">
         <v>5</v>
@@ -2217,17 +2217,17 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
       <c r="B58" s="3"/>
       <c r="C58" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E58" s="3">
         <v>5</v>
@@ -2236,17 +2236,17 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="3"/>
       <c r="C59" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="E59" s="3">
         <v>6</v>
@@ -2255,17 +2255,17 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="3"/>
       <c r="C60" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="E60" s="3">
         <v>3</v>
@@ -2274,19 +2274,19 @@
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
       <c r="I60" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E61" s="3">
         <v>1</v>
@@ -2357,17 +2357,17 @@
       <c r="I64" s="23"/>
     </row>
     <row r="65" spans="1:27" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
       <c r="W65">
         <v>24</v>
       </c>
@@ -2394,17 +2394,17 @@
       <c r="I66" s="21"/>
     </row>
     <row r="67" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
       <c r="W67">
         <v>24</v>
       </c>
@@ -2422,13 +2422,13 @@
       </c>
     </row>
     <row r="68" spans="1:27" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
+      <c r="A68" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
       <c r="F68" s="24"/>
       <c r="G68" s="24"/>
       <c r="H68" s="24"/>
@@ -2450,11 +2450,11 @@
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A69" s="31"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
       <c r="F69" s="24"/>
       <c r="G69" s="24"/>
       <c r="H69" s="24"/>
